--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T11:38:34+00:00</t>
+    <t>2022-08-31T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:33:23+00:00</t>
+    <t>2022-08-31T09:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:56:11+00:00</t>
+    <t>2022-08-31T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:36:06+00:00</t>
+    <t>2022-08-31T12:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:42:43+00:00</t>
+    <t>2022-08-31T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -451,28 +451,18 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>covid19ComorbidityPresent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid19-comorbidity-present}
+    <t>otherConditionsComorbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid19-other-conditions-comorbidity}
 </t>
   </si>
   <si>
-    <t>Covid19 Comorbidity Present</t>
+    <t>Other Conditions or Comorbidity</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>otherConditionsComorbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid19-other-conditions-comorbidity}
-</t>
-  </si>
-  <si>
-    <t>Other Conditions or Comorbidity</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -1440,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2662,43 +2652,45 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2746,7 +2738,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -2755,7 +2747,7 @@
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>139</v>
@@ -2770,7 +2762,7 @@
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2781,11 +2773,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2798,25 +2790,25 @@
         <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>77</v>
@@ -2865,7 +2857,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -2877,10 +2869,10 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
@@ -2889,10 +2881,10 @@
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>77</v>
@@ -2900,7 +2892,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2911,32 +2903,30 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2960,13 +2950,13 @@
         <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>77</v>
@@ -2984,34 +2974,34 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>77</v>
@@ -3019,7 +3009,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3042,16 +3032,16 @@
         <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3077,13 +3067,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3101,7 +3091,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3110,33 +3100,33 @@
         <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AO14" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3147,28 +3137,28 @@
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3194,13 +3184,13 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3218,42 +3208,42 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3264,7 +3254,7 @@
         <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3276,16 +3266,16 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3311,13 +3301,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3335,13 +3325,13 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
@@ -3353,28 +3343,28 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3384,27 +3374,27 @@
         <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3428,13 +3418,11 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3452,7 +3440,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3467,41 +3455,41 @@
         <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3510,18 +3498,18 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3545,11 +3533,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3567,13 +3557,13 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
@@ -3582,38 +3572,38 @@
         <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
@@ -3625,18 +3615,18 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3660,13 +3650,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -3684,13 +3674,13 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
@@ -3699,35 +3689,35 @@
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>88</v>
@@ -3742,18 +3732,18 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3801,10 +3791,10 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>88</v>
@@ -3816,19 +3806,19 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>77</v>
@@ -3836,7 +3826,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3859,16 +3849,16 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3918,7 +3908,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -3933,19 +3923,19 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>77</v>
@@ -3953,7 +3943,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3973,19 +3963,19 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4035,7 +4025,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4044,25 +4034,25 @@
         <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4070,7 +4060,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4090,20 +4080,18 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4152,7 +4140,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4161,7 +4149,7 @@
         <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>100</v>
@@ -4173,13 +4161,13 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>77</v>
@@ -4187,7 +4175,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4210,13 +4198,13 @@
         <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4267,7 +4255,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4288,13 +4276,13 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>77</v>
@@ -4302,7 +4290,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4325,13 +4313,13 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4382,7 +4370,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4403,13 +4391,13 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>77</v>
@@ -4417,7 +4405,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4428,7 +4416,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4437,16 +4425,16 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4497,19 +4485,19 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
@@ -4518,13 +4506,13 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>77</v>
@@ -4532,7 +4520,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4543,7 +4531,7 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4555,13 +4543,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>285</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4612,19 +4600,19 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
@@ -4636,7 +4624,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4647,18 +4635,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -4670,15 +4658,17 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4727,19 +4717,19 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
@@ -4751,7 +4741,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4762,11 +4752,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4779,24 +4769,26 @@
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4844,7 +4836,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4868,7 +4860,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4879,43 +4871,39 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4939,13 +4927,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -4963,31 +4951,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4998,7 +4986,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5009,7 +4997,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5021,13 +5009,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5054,40 +5042,40 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>100</v>
@@ -5096,13 +5084,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5113,7 +5101,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5124,7 +5112,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5136,13 +5124,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5169,13 +5157,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5193,16 +5181,16 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>100</v>
@@ -5217,7 +5205,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5228,7 +5216,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5239,7 +5227,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5251,15 +5239,17 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5284,43 +5274,43 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
@@ -5332,7 +5322,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5343,7 +5333,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5354,7 +5344,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5366,17 +5356,15 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>285</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5425,19 +5413,19 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>77</v>
@@ -5449,7 +5437,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5460,18 +5448,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5483,15 +5471,17 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5540,19 +5530,19 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
@@ -5564,7 +5554,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5575,11 +5565,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5592,24 +5582,26 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5657,7 +5649,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5681,7 +5673,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5692,11 +5684,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5709,26 +5701,22 @@
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5752,13 +5740,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5776,7 +5764,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5785,25 +5773,25 @@
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -5811,7 +5799,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5834,13 +5822,13 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>164</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5867,13 +5855,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -5891,7 +5879,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5900,25 +5888,25 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -5926,7 +5914,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5946,16 +5934,16 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6006,7 +5994,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6015,147 +6003,32 @@
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO40" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO40">
+  <autoFilter ref="A1:AO39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6165,7 +6038,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="341">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:41:46+00:00</t>
+    <t>2022-08-31T20:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -427,21 +427,21 @@
     <t>Condition.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -451,25 +451,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>otherConditionsComorbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid19-other-conditions-comorbidity}
-</t>
-  </si>
-  <si>
-    <t>Other Conditions or Comorbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Condition.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -477,9 +459,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -938,9 +917,6 @@
   </si>
   <si>
     <t>Condition.stage.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1430,7 +1406,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1440,7 +1416,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2428,7 +2404,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2447,15 +2423,17 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>77</v>
@@ -2492,14 +2470,16 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>138</v>
@@ -2526,7 +2506,7 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>77</v>
@@ -2535,43 +2515,45 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>140</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2619,7 +2601,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -2628,7 +2610,7 @@
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>139</v>
@@ -2643,7 +2625,7 @@
         <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>77</v>
@@ -2654,11 +2636,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2671,25 +2653,25 @@
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -2738,7 +2720,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -2750,10 +2732,10 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
@@ -2762,10 +2744,10 @@
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>77</v>
@@ -2773,7 +2755,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2784,32 +2766,30 @@
         <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2833,13 +2813,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -2857,34 +2837,34 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>77</v>
@@ -2892,7 +2872,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2915,16 +2895,16 @@
         <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2950,13 +2930,13 @@
         <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>77</v>
@@ -2974,7 +2954,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -2983,33 +2963,33 @@
         <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3020,28 +3000,28 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3067,66 +3047,66 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3137,7 +3117,7 @@
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3149,16 +3129,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3184,37 +3164,37 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
@@ -3226,28 +3206,28 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3257,27 +3237,27 @@
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3301,31 +3281,29 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3340,41 +3318,41 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3383,18 +3361,18 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3418,11 +3396,13 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3440,13 +3420,13 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
@@ -3455,38 +3435,38 @@
         <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3498,18 +3478,18 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3533,37 +3513,37 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="X18" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
@@ -3572,35 +3552,35 @@
         <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>88</v>
@@ -3615,18 +3595,18 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3674,10 +3654,10 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>88</v>
@@ -3689,19 +3669,19 @@
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>77</v>
@@ -3709,7 +3689,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3732,16 +3712,16 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3791,7 +3771,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -3806,19 +3786,19 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>77</v>
@@ -3826,7 +3806,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3846,19 +3826,19 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3908,7 +3888,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -3917,25 +3897,25 @@
         <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>77</v>
@@ -3943,7 +3923,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3963,20 +3943,18 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4025,7 +4003,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4034,7 +4012,7 @@
         <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>100</v>
@@ -4046,13 +4024,13 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4060,7 +4038,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4083,13 +4061,13 @@
         <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4140,7 +4118,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4161,7 +4139,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>267</v>
@@ -4198,13 +4176,13 @@
         <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4276,7 +4254,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>273</v>
@@ -4301,7 +4279,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4310,16 +4288,16 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4376,13 +4354,13 @@
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
@@ -4391,13 +4369,13 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>77</v>
@@ -4416,7 +4394,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4428,13 +4406,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4485,31 +4463,31 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4520,18 +4498,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4543,15 +4521,17 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4600,19 +4580,19 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
@@ -4624,7 +4604,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4635,11 +4615,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4652,24 +4632,26 @@
         <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4717,7 +4699,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4741,7 +4723,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4752,43 +4734,39 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4812,13 +4790,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -4836,31 +4814,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4882,7 +4860,7 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -4894,13 +4872,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4927,13 +4905,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -4957,10 +4935,10 @@
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>100</v>
@@ -4969,13 +4947,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4986,7 +4964,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4997,7 +4975,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5009,13 +4987,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5042,13 +5020,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5066,16 +5044,16 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>100</v>
@@ -5090,7 +5068,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5101,7 +5079,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5112,7 +5090,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5124,15 +5102,17 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5157,55 +5137,55 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="AJ32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5216,7 +5196,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5227,7 +5207,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5239,17 +5219,15 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5298,19 +5276,19 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
@@ -5322,7 +5300,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5333,18 +5311,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5356,15 +5334,17 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5413,19 +5393,19 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>77</v>
@@ -5437,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5448,11 +5428,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5465,24 +5445,26 @@
         <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5530,7 +5512,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5554,7 +5536,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5565,11 +5547,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5582,26 +5564,22 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5625,13 +5603,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -5649,7 +5627,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5658,25 +5636,25 @@
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>77</v>
@@ -5684,7 +5662,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5707,13 +5685,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>161</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5740,13 +5718,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5764,7 +5742,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5773,33 +5751,33 @@
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5813,22 +5791,22 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5879,7 +5857,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5888,147 +5866,32 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO39" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO39">
+  <autoFilter ref="A1:AO38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6038,7 +5901,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:08:39+00:00</t>
+    <t>2022-08-31T20:28:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:28:40+00:00</t>
+    <t>2022-08-31T20:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:44:20+00:00</t>
+    <t>2022-08-31T20:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:56:30+00:00</t>
+    <t>2022-09-03T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T19:58:19+00:00</t>
+    <t>2022-09-03T20:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T20:14:05+00:00</t>
+    <t>2022-09-03T21:16:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:16:47+00:00</t>
+    <t>2022-09-03T21:25:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:25:02+00:00</t>
+    <t>2022-09-04T09:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T09:55:59+00:00</t>
+    <t>2022-09-04T13:23:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:23:45+00:00</t>
+    <t>2022-09-04T13:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:33:44+00:00</t>
+    <t>2022-09-04T13:49:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:49:49+00:00</t>
+    <t>2022-09-04T14:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T14:40:23+00:00</t>
+    <t>2022-09-04T15:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:15:31+00:00</t>
+    <t>2022-09-04T15:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:19:44+00:00</t>
+    <t>2022-09-04T16:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:44:58+00:00</t>
+    <t>2022-09-04T16:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:52:24+00:00</t>
+    <t>2022-09-04T17:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T17:03:18+00:00</t>
+    <t>2022-09-04T18:26:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T18:26:39+00:00</t>
+    <t>2022-09-05T12:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:17:02+00:00</t>
+    <t>2022-09-05T12:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:37:44+00:00</t>
+    <t>2022-09-05T15:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:36:05+00:00</t>
+    <t>2022-09-05T19:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T19:43:49+00:00</t>
+    <t>2022-09-05T20:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:02:35+00:00</t>
+    <t>2022-09-05T20:52:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:52:48+00:00</t>
+    <t>2022-09-06T09:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:51:55+00:00</t>
+    <t>2022-09-06T10:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:23:58+00:00</t>
+    <t>2022-09-06T10:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:35:52+00:00</t>
+    <t>2022-09-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:50:16+00:00</t>
+    <t>2022-09-06T13:52:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:52:47+00:00</t>
+    <t>2022-09-06T13:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:57:27+00:00</t>
+    <t>2022-09-06T15:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:51:32+00:00</t>
+    <t>2022-09-06T16:22:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T16:22:29+00:00</t>
+    <t>2022-09-07T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:47:40+00:00</t>
+    <t>2022-09-07T08:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:51:15+00:00</t>
+    <t>2022-09-07T09:51:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:51:43+00:00</t>
+    <t>2022-09-07T09:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:57:24+00:00</t>
+    <t>2022-09-07T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="342">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:41:33+00:00</t>
+    <t>2022-09-09T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -289,7 +289,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -902,6 +902,10 @@
   </si>
   <si>
     <t>Condition.stage.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4406,13 +4410,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4463,7 +4467,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4487,7 +4491,7 @@
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4498,7 +4502,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4527,7 +4531,7 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>137</v>
@@ -4580,7 +4584,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4604,7 +4608,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4615,11 +4619,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4641,10 +4645,10 @@
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4699,7 +4703,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4734,7 +4738,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4760,10 +4764,10 @@
         <v>155</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4793,10 +4797,10 @@
         <v>215</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -4814,7 +4818,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4823,7 +4827,7 @@
         <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>100</v>
@@ -4832,7 +4836,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>165</v>
@@ -4849,7 +4853,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4872,13 +4876,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4929,7 +4933,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -4938,7 +4942,7 @@
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>100</v>
@@ -4953,7 +4957,7 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4964,7 +4968,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4990,10 +4994,10 @@
         <v>155</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5023,10 +5027,10 @@
         <v>215</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5044,7 +5048,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5068,7 +5072,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5079,7 +5083,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5105,13 +5109,13 @@
         <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5161,7 +5165,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5173,7 +5177,7 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
@@ -5185,7 +5189,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5196,7 +5200,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5219,13 +5223,13 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5276,7 +5280,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5300,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5311,7 +5315,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5340,7 +5344,7 @@
         <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>137</v>
@@ -5393,7 +5397,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5417,7 +5421,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5428,11 +5432,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5454,10 +5458,10 @@
         <v>134</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>137</v>
@@ -5512,7 +5516,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5547,7 +5551,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5573,10 +5577,10 @@
         <v>155</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5606,10 +5610,10 @@
         <v>215</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -5627,7 +5631,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5636,13 +5640,13 @@
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>185</v>
@@ -5651,10 +5655,10 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>77</v>
@@ -5662,7 +5666,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5685,13 +5689,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5742,7 +5746,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5751,7 +5755,7 @@
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
@@ -5766,10 +5770,10 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -5777,7 +5781,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5800,13 +5804,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5857,7 +5861,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5872,16 +5876,16 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:12:33+00:00</t>
+    <t>2022-09-09T14:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T14:31:53+00:00</t>
+    <t>2022-09-12T10:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T10:06:31+00:00</t>
+    <t>2022-09-14T11:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T11:15:14+00:00</t>
+    <t>2022-09-15T17:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/covid19-conditions-comorbidity</t>
+    <t>http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-conditions-comorbidity</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T17:44:16+00:00</t>
+    <t>2022-09-15T19:52:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -652,7 +652,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-conditions-comorbidity</t>
+    <t>http://openhie.org/fhir/covid-casereporting/ValueSet/vs-conditions-comorbidity</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1443,7 +1443,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.46875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-conditions-comorbidity</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-comorbidity</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T19:52:53+00:00</t>
+    <t>2022-09-16T13:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -652,7 +652,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid-casereporting/ValueSet/vs-conditions-comorbidity</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-conditions-comorbidity</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1443,7 +1443,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:03:17+00:00</t>
+    <t>2022-09-16T14:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:32:23+00:00</t>
+    <t>2022-09-16T18:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T18:53:42+00:00</t>
+    <t>2022-09-16T19:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T19:44:32+00:00</t>
+    <t>2022-09-16T20:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T20:08:29+00:00</t>
+    <t>2022-09-19T15:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T15:24:10+00:00</t>
+    <t>2022-09-21T08:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T08:12:07+00:00</t>
+    <t>2022-09-21T10:21:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T10:21:48+00:00</t>
+    <t>2022-09-22T08:03:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T08:03:20+00:00</t>
+    <t>2022-10-06T11:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="341">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:22:19+00:00</t>
+    <t>2022-11-03T06:19:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
-  </si>
-  <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1681,19 +1677,19 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>77</v>
@@ -1704,7 +1700,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1715,28 +1711,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1786,13 +1782,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -1821,7 +1817,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1832,25 +1828,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1901,19 +1897,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -1936,7 +1932,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1947,28 +1943,28 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2018,19 +2014,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2053,7 +2049,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2064,7 +2060,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2076,16 +2072,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2111,43 +2107,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2170,18 +2166,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2193,16 +2189,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2252,31 +2248,31 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>77</v>
@@ -2287,11 +2283,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2310,16 +2306,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2369,7 +2365,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -2393,7 +2389,7 @@
         <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>77</v>
@@ -2404,11 +2400,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2427,16 +2423,16 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2486,7 +2482,7 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -2498,7 +2494,7 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2510,7 +2506,7 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>77</v>
@@ -2521,11 +2517,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2538,25 +2534,25 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -2605,7 +2601,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -2617,7 +2613,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -2629,7 +2625,7 @@
         <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>77</v>
@@ -2640,7 +2636,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2660,22 +2656,22 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -2724,7 +2720,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -2736,22 +2732,22 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>77</v>
@@ -2759,7 +2755,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2770,28 +2766,28 @@
         <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2817,58 +2813,58 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH12" t="s" s="2">
+      <c r="AI12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>77</v>
@@ -2876,7 +2872,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2887,28 +2883,28 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2934,66 +2930,66 @@
         <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH13" t="s" s="2">
+      <c r="AI13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AI13" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3016,16 +3012,16 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3051,14 +3047,14 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3075,7 +3071,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3087,22 +3083,22 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>77</v>
@@ -3110,7 +3106,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3121,7 +3117,7 @@
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3133,16 +3129,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3168,99 +3164,99 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3285,64 +3281,64 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3362,19 +3358,19 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3400,14 +3396,14 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3424,7 +3420,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3436,63 +3432,63 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3541,34 +3537,34 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>77</v>
@@ -3576,7 +3572,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3587,28 +3583,28 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3658,34 +3654,34 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>77</v>
@@ -3693,7 +3689,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3704,28 +3700,28 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3775,34 +3771,34 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>77</v>
@@ -3810,7 +3806,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3821,7 +3817,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -3833,16 +3829,16 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3892,34 +3888,34 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AI21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>77</v>
@@ -3927,7 +3923,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3938,25 +3934,25 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J22" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4007,19 +4003,19 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>77</v>
@@ -4028,13 +4024,13 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4042,7 +4038,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4053,25 +4049,25 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4122,19 +4118,19 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
@@ -4146,10 +4142,10 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>77</v>
@@ -4157,7 +4153,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4168,25 +4164,25 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4237,19 +4233,19 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
@@ -4258,13 +4254,13 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>77</v>
@@ -4272,7 +4268,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4295,13 +4291,13 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4352,7 +4348,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4364,19 +4360,19 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4387,7 +4383,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4398,7 +4394,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4410,13 +4406,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4467,31 +4463,31 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4502,11 +4498,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4525,16 +4521,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4584,7 +4580,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4596,7 +4592,7 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
@@ -4608,7 +4604,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4619,11 +4615,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4636,25 +4632,25 @@
         <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4703,7 +4699,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4715,7 +4711,7 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
@@ -4727,7 +4723,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4738,7 +4734,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4749,7 +4745,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -4761,13 +4757,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4794,55 +4790,55 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH29" t="s" s="2">
+      <c r="AI29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AL29" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4853,7 +4849,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4876,13 +4872,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4933,7 +4929,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -4942,10 +4938,10 @@
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
@@ -4957,7 +4953,7 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4968,7 +4964,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4979,7 +4975,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -4991,13 +4987,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5024,55 +5020,55 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5083,7 +5079,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5106,16 +5102,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5165,7 +5161,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5177,19 +5173,19 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5200,7 +5196,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5211,7 +5207,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5223,13 +5219,13 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5280,31 +5276,31 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5315,11 +5311,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5338,16 +5334,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5397,7 +5393,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5409,7 +5405,7 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>77</v>
@@ -5421,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5432,11 +5428,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5449,25 +5445,25 @@
         <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5516,7 +5512,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5528,7 +5524,7 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
@@ -5540,7 +5536,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5551,7 +5547,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5571,16 +5567,16 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5607,14 +5603,14 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5631,7 +5627,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5640,25 +5636,25 @@
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AI36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>77</v>
@@ -5666,7 +5662,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5686,16 +5682,16 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5746,7 +5742,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5755,10 +5751,10 @@
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
@@ -5770,10 +5766,10 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -5781,7 +5777,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5795,7 +5791,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5804,13 +5800,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5861,7 +5857,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5873,19 +5869,19 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:19:36+00:00</t>
+    <t>2022-11-03T06:58:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:58:58+00:00</t>
+    <t>2022-11-03T14:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T14:17:22+00:00</t>
+    <t>2022-11-10T06:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T06:12:01+00:00</t>
+    <t>2022-11-10T09:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T09:26:17+00:00</t>
+    <t>2022-11-11T06:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T06:34:01+00:00</t>
+    <t>2022-11-11T10:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T10:19:33+00:00</t>
+    <t>2022-11-11T14:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-comorbidity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T14:17:22+00:00</t>
+    <t>2022-11-11T14:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
